--- a/sbc.xlsx
+++ b/sbc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\wkzq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C203C15-68FF-48EA-BDC2-D37BC3FBD491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4656D30-ACC5-4A50-9260-95E51850EFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>准确度（%）</t>
   </si>
@@ -48,13 +48,14 @@
     <t>线性SVM</t>
   </si>
   <si>
-    <t>多项式SVM</t>
-  </si>
-  <si>
     <t>高斯SVM</t>
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>á</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -78,16 +79,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,10 +135,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,19 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -502,138 +495,116 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>6.61</v>
+      </c>
+      <c r="D2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>1.65</v>
+      </c>
+      <c r="D3">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>70</v>
       </c>
-      <c r="C2">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="D2">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="C4">
+        <v>2.15</v>
+      </c>
+      <c r="D4">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>1.82</v>
+      </c>
+      <c r="D5">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>70</v>
       </c>
-      <c r="C3">
-        <v>1.56</v>
-      </c>
-      <c r="D3">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>1.04</v>
-      </c>
-      <c r="D4">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>52</v>
-      </c>
-      <c r="C5">
-        <v>1.04</v>
-      </c>
-      <c r="D5">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.46</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.69</v>
+      <c r="C6">
+        <v>1.57</v>
+      </c>
+      <c r="D6">
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="D7">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>68</v>
       </c>
       <c r="C8">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="D8">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>1.04</v>
-      </c>
-      <c r="D9">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -647,140 +618,125 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>73</v>
       </c>
       <c r="C2">
-        <v>4.37</v>
+        <v>6.58</v>
       </c>
       <c r="D2">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>1.36</v>
+        <v>2.16</v>
       </c>
       <c r="D3">
-        <v>2.31</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>1.27</v>
+        <v>2.16</v>
       </c>
       <c r="D4">
-        <v>1.73</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>0.88</v>
+        <v>2.16</v>
       </c>
       <c r="D5">
-        <v>2.1800000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.2400000000000002</v>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>2.16</v>
+      </c>
+      <c r="D6">
+        <v>3.33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>1.17</v>
+        <v>2.16</v>
       </c>
       <c r="D7">
-        <v>2.4900000000000002</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>1.07</v>
+        <v>2.16</v>
       </c>
       <c r="D8">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>0.88</v>
-      </c>
-      <c r="D9">
-        <v>2.1800000000000002</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,120 +747,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>2.76</v>
+        <v>1.41</v>
       </c>
       <c r="D2">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.41</v>
       </c>
       <c r="D3">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>0.74</v>
+        <v>1.41</v>
       </c>
       <c r="D4">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>72</v>
       </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>74</v>
-      </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>1.74</v>
       </c>
       <c r="D6">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>55.000000000000007</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>0.56999999999999995</v>
+        <v>1.74</v>
       </c>
       <c r="D7">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>0.74</v>
-      </c>
-      <c r="D8">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <v>76</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>